--- a/main/ig/ValueSet-CompetenceNewDisplay.xlsx
+++ b/main/ig/ValueSet-CompetenceNewDisplay.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T13:14:16+00:00</t>
+    <t>2024-11-18T13:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>C01</t>
   </si>
   <si>
-    <t>test modification libelé</t>
+    <t>test modification libellé</t>
   </si>
   <si>
     <t/>

--- a/main/ig/ValueSet-CompetenceNewDisplay.xlsx
+++ b/main/ig/ValueSet-CompetenceNewDisplay.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Competence Value Set</t>
+    <t>Competence Value Set - changement d'un libellé / rap à la TRE</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T13:14:28+00:00</t>
+    <t>2024-11-18T13:16:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Competence Value Set.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -346,27 +343,27 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -388,7 +385,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -396,26 +393,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
